--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3268.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3268.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146800500305323</v>
+        <v>3.204214811325073</v>
       </c>
       <c r="B1">
-        <v>1.591873911575126</v>
+        <v>2.729588508605957</v>
       </c>
       <c r="C1">
-        <v>2.801340249383458</v>
+        <v>1.714097380638123</v>
       </c>
       <c r="D1">
-        <v>5.407637968966672</v>
+        <v>1.45933735370636</v>
       </c>
       <c r="E1">
-        <v>1.341795368626554</v>
+        <v>1.371708750724792</v>
       </c>
     </row>
   </sheetData>
